--- a/docs/Axiomatisation_Rationale.xlsx
+++ b/docs/Axiomatisation_Rationale.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12855"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="28512" windowHeight="12852"/>
   </bookViews>
   <sheets>
     <sheet name="MOP" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="RXNO" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="418">
   <si>
     <t>Class</t>
   </si>
@@ -53,9 +52,6 @@
   </si>
   <si>
     <t>A molecular process resulting in the rate of another molecular process being increased without modifying the other process's overall Gibbs standard energy change.</t>
-  </si>
-  <si>
-    <t>'acid catalysis'</t>
   </si>
   <si>
     <t>Brønsted acid catalysis' or 'Lewis acid catalysis'</t>
@@ -79,6 +75,50 @@
     <t>1/2/addition reaction'
  and ('has occurrent part' some organosilylation)
  and ('has occurrent part' some cyanation)</t>
+  </si>
+  <si>
+    <t>seems unproblematic, but is this really necessary?</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000731</t>
+  </si>
+  <si>
+    <t>Catalysis where the catalyst is a base.</t>
+  </si>
+  <si>
+    <t>Lewis base catalysis' or 'Brønsted base catalysis'</t>
+  </si>
+  <si>
+    <t>acid catalysis</t>
+  </si>
+  <si>
+    <t>alternating copolymerisation</t>
+  </si>
+  <si>
+    <t>A copolymerisation in which an alternating copolymer is formed.</t>
+  </si>
+  <si>
+    <t>copolymerisation
+ and ('has participant beginning to exist' some 'alternating copolymer')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000693</t>
+  </si>
+  <si>
+    <t>base catalysis</t>
+  </si>
+  <si>
+    <t>block copolymerisation</t>
+  </si>
+  <si>
+    <t>A copolymerisation in which a block copolymer is formed.</t>
+  </si>
+  <si>
+    <t>copolymerisation
+ and ('has participant beginning to exist' some 'block copolymer')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000699</t>
   </si>
   <si>
     <r>
@@ -87,66 +127,1280 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>has participant</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (ractant/product/imput/output) design pattern? From the text def this is rather implied.</t>
     </r>
   </si>
   <si>
-    <t>seems unproblematic, but is this really necessary?</t>
-  </si>
-  <si>
-    <t>'base catalysis'</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MOP_0000731</t>
-  </si>
-  <si>
-    <t>Catalysis where the catalyst is a base.</t>
-  </si>
-  <si>
-    <t>Lewis base catalysis' or 'Brønsted base catalysis'</t>
+    <t>chain polymerisation</t>
+  </si>
+  <si>
+    <t>A chain reaction in which the growth of a polymer chain proceeds exclusively by reaction(s) between monomer(s) and reactive site(s) on the polymer chain with regeneration of the reactive site(s) at the end of each growth step.</t>
+  </si>
+  <si>
+    <t>chain reaction'
+ and ('has participant beginning to exist' some macromolecule)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000634</t>
+  </si>
+  <si>
+    <t>condensation polymerisation</t>
+  </si>
+  <si>
+    <t>Polymerisation by a repeated condensation process.</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000632</t>
+  </si>
+  <si>
+    <t>polymerisation
+ and ('has participant beginning to exist' some macromolecule)
+ and ('has occurrent part' some 'condensation reaction')</t>
+  </si>
+  <si>
+    <t>condensative chain polymerisation</t>
+  </si>
+  <si>
+    <t>A chain polymerisation that proceeds by condensation steps.</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000645</t>
+  </si>
+  <si>
+    <t>chain polymerisation'
+ and ('has occurrent part' some 'condensation reaction')</t>
+  </si>
+  <si>
+    <t>copolymerisation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000631</t>
+  </si>
+  <si>
+    <t>A polymerisation in which a copolymer is formed.</t>
+  </si>
+  <si>
+    <t>polymerisation
+ and ('has participant beginning to exist' some co-polymer)</t>
+  </si>
+  <si>
+    <t>diblock copolymerisation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000700</t>
+  </si>
+  <si>
+    <t>A copolymerisation in which a diblock copolymer is formed.</t>
+  </si>
+  <si>
+    <t>copolymerisation
+ and ('has participant beginning to exist' some 'diblock copolymer')</t>
+  </si>
+  <si>
+    <t>enolization</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000672</t>
+  </si>
+  <si>
+    <t>A molecular process where a carbonyl compound is converted an enol. Usually this is a reversible tautomerization but it can be irreversible.</t>
+  </si>
+  <si>
+    <t>keto-enol tautomerisation'
+ and ('has participant beginning to exist' some enol)
+ and ('has participant ceasing to exist' some 'carbonyl compound')</t>
+  </si>
+  <si>
+    <t>epoxidation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000671</t>
+  </si>
+  <si>
+    <t>A molecular process that results in the formation of an epoxide.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has participant beginning to exist' some epoxide)</t>
+  </si>
+  <si>
+    <t>graft copolymerisation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000694</t>
+  </si>
+  <si>
+    <t>A copolymerisation in which a graft copolymer is formed.</t>
+  </si>
+  <si>
+    <t>copolymerisation
+ and ('has participant beginning to exist' some 'graft copolymer')</t>
+  </si>
+  <si>
+    <t>graft polymerisation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000702</t>
+  </si>
+  <si>
+    <t>A polymerisation in which a graft polymer is formed.</t>
+  </si>
+  <si>
+    <t>polymerisation
+ and ('has participant beginning to exist' some 'graft polymer')</t>
+  </si>
+  <si>
+    <t>homopolymerisation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000633</t>
+  </si>
+  <si>
+    <t>Polymerisation in which a homopolymer is formed.</t>
+  </si>
+  <si>
+    <t>polymerisation
+ and ('has participant beginning to exist' some homopolymer)</t>
+  </si>
+  <si>
+    <t>ionic copolymerisation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000647</t>
+  </si>
+  <si>
+    <t>An ionic polymerisation where the product is a copolymer.</t>
+  </si>
+  <si>
+    <t>ionic polymerisation'
+ and ('has participant beginning to exist' some co-polymer)</t>
+  </si>
+  <si>
+    <t>living copolymerisation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000649</t>
+  </si>
+  <si>
+    <t>A living polymerisation where the product is a copolymer.</t>
+  </si>
+  <si>
+    <t>living polymerisation'
+ and ('has participant beginning to exist' some co-polymer)</t>
+  </si>
+  <si>
+    <t>periodic copolymerisation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000695</t>
+  </si>
+  <si>
+    <t>A copolymerisation in which a periodic copolymer is formed.</t>
+  </si>
+  <si>
+    <t>copolymerisation
+ and ('has participant beginning to exist' some 'periodic copolymer')</t>
+  </si>
+  <si>
+    <t>polyaddition</t>
+  </si>
+  <si>
+    <t>An all-degree polymerisation that proceeds by addition reactions.</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000643</t>
+  </si>
+  <si>
+    <t>all-degree polymerisation'
+ and ('has occurrent part' some 'addition reaction')</t>
+  </si>
+  <si>
+    <t>polycondensation</t>
+  </si>
+  <si>
+    <t>An all-degree polymerisation that proceeds by condensation reactions.</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000644</t>
+  </si>
+  <si>
+    <t>all-degree polymerisation'
+ and ('has occurrent part' some 'condensation reaction')</t>
+  </si>
+  <si>
+    <t>polymerisation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000629</t>
+  </si>
+  <si>
+    <t>The process of converting a monomer mixture of monomers into a polymer.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has participant beginning to exist' some macromolecule)</t>
+  </si>
+  <si>
+    <t>radical copolymerisation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000648</t>
+  </si>
+  <si>
+    <t>A radical polymerisation where the product is a copolymer.</t>
+  </si>
+  <si>
+    <t>radical polymerisation'
+ and ('has participant beginning to exist' some co-polymer)</t>
+  </si>
+  <si>
+    <t>radical formation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000786</t>
+  </si>
+  <si>
+    <t>A molecular process in which a molecular entity possessing an unpaired electron is formed.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has participant beginning to exist' some radical)</t>
+  </si>
+  <si>
+    <t>random copolymerisation</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000696</t>
+  </si>
+  <si>
+    <t>A copolymerisation in which a random copolymer is formed.</t>
+  </si>
+  <si>
+    <t>copolymerisation
+ and ('has participant beginning to exist' some 'random copolymer')</t>
+  </si>
+  <si>
+    <t>ring-opening copolymerisation</t>
+  </si>
+  <si>
+    <t>A ring-opening polymerisation where the product is a copolymer.</t>
+  </si>
+  <si>
+    <t>ring-opening polymerisation'
+ and ('has participant beginning to exist' some co-polymer)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000688</t>
+  </si>
+  <si>
+    <t>ring-opening metathesis polymerisation</t>
+  </si>
+  <si>
+    <t>A ring-opening polymerisation that proceeds by metathesis steps.</t>
+  </si>
+  <si>
+    <t>ring-opening polymerisation'
+ and ('has occurrent part' some metathesis)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000685</t>
+  </si>
+  <si>
+    <t>statistical copolymerisation</t>
+  </si>
+  <si>
+    <t>A copolymerisation in which a statistical copolymer is formed.</t>
+  </si>
+  <si>
+    <t>copolymerisation
+ and ('has participant beginning to exist' some 'statistical copolymer')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000697</t>
+  </si>
+  <si>
+    <t>stereospecific copolymerisation</t>
+  </si>
+  <si>
+    <t>A copolymerisation in which a tactic copolymer is formed.</t>
+  </si>
+  <si>
+    <t>copolymerisation
+ and ('has participant beginning to exist' some 'tactic polymer')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000698</t>
+  </si>
+  <si>
+    <t>sulfonylation</t>
+  </si>
+  <si>
+    <t>Formation of a covalent bond between a substrate and a sulfonyl group.</t>
+  </si>
+  <si>
+    <t>formation of covalent bond with sulfur centre'
+ and (has_participant some 'sulfonyl groups')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000539 (alternative: http://purl.obolibrary.org/obo/MOP_0000524)</t>
+  </si>
+  <si>
+    <t>triblock copolymerisation</t>
+  </si>
+  <si>
+    <t>A copolymerisation in which a triblock copolymer is formed.</t>
+  </si>
+  <si>
+    <t>copolymerisation
+ and ('has participant beginning to exist' some 'triblock copolymer')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000701</t>
+  </si>
+  <si>
+    <t>acridine synthesis</t>
+  </si>
+  <si>
+    <t>Ring formation reaction where the intended product is an acridine.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some acridines)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000518</t>
+  </si>
+  <si>
+    <t>addition reaction step</t>
+  </si>
+  <si>
+    <t>A reaction in which two or more groups of atoms are added to the molecule, resulting in a change of skeletal bond order.</t>
+  </si>
+  <si>
+    <t>functional modification'
+ and (achieves_planned_objective some 'addition objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000041</t>
+  </si>
+  <si>
+    <t>Allan-Robinson reaction</t>
+  </si>
+  <si>
+    <t>Reaction of ortho-hydroxyaryl ketones with aromatic acid anhydrides to yield a flavone or isoflavone.</t>
+  </si>
+  <si>
+    <t>Allan-Robinson flavone synthesis' or 'Allan-Robinson isoflavone synthesis'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000475</t>
+  </si>
+  <si>
+    <t>amide reduction to amine</t>
+  </si>
+  <si>
+    <t>A reduction process where an amide is transformed into an amine.</t>
+  </si>
+  <si>
+    <t>reduction
+ and ('has specified product' some amine)
+ and ('has specified reactant' some amide)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000338</t>
+  </si>
+  <si>
+    <t>amino group deprotection</t>
+  </si>
+  <si>
+    <t>A deprotection reaction where the reactive centre is an amino nitrogen atom.</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000320</t>
+  </si>
+  <si>
+    <t>deprotection reaction'
+ and (deprotects some 'amino group')</t>
+  </si>
+  <si>
+    <t>amino group protection</t>
+  </si>
+  <si>
+    <t>A protection reaction where the reactive centre is an amino nitrogen atom.</t>
+  </si>
+  <si>
+    <t>protection reaction'
+ and (protects some 'amino group')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000321</t>
+  </si>
+  <si>
+    <t>Appel bromination</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000409</t>
+  </si>
+  <si>
+    <t>Conversion of an alcohol to an alkyl bromide with triphenylphosphine and tetrabromomethane or bromine.</t>
+  </si>
+  <si>
+    <t>azacycle synthesis</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000347</t>
+  </si>
+  <si>
+    <t>A ring formation reaction where the intended product contains an azacycle that was not in any of the reactants.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some 'organonitrogen heterocyclic compound')</t>
+  </si>
+  <si>
+    <t>Appel bromination with tetrabromomethane' or 'Appel bromination with bromine'</t>
+  </si>
+  <si>
+    <t>Barbier reaction</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000084</t>
+  </si>
+  <si>
+    <t>A joining reaction between an aldehyde or ketone and an alkyl halide or aryl halide or vinyl halide or allyl halide in the presence of metal to give a secondary or tertiary alcohol.</t>
+  </si>
+  <si>
+    <t>'aldehyde Barbier reaction' or 'ketone Barbier reaction'</t>
+  </si>
+  <si>
+    <t>Boulton-Katritzky rearrangement</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000502</t>
+  </si>
+  <si>
+    <t>Rearrangement of a mancude eight-membered system containing a pentacycle into a different pentacycle where two of the ring atoms are ring atoms in the original molecule.</t>
+  </si>
+  <si>
+    <t>'monocyclic Boulton-Katritzky rearrangement' or 'bicyclic Boulton-Katritzky rearrangement'</t>
+  </si>
+  <si>
+    <t>Cadogan indole synthesis</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000509</t>
+  </si>
+  <si>
+    <t>A Cadogan cyclization that results in an indole.</t>
+  </si>
+  <si>
+    <t>Cadogan cyclization'
+ and ('has specified product' some indoles)</t>
+  </si>
+  <si>
+    <t>carbazole synthesis</t>
+  </si>
+  <si>
+    <t>Ring formation reaction where the intended product is a carbazole.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some carbazoles)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000521</t>
+  </si>
+  <si>
+    <t>carboxy group deprotection</t>
+  </si>
+  <si>
+    <t>A deprotection reaction where the reactive centre is a carboxy oxygen atom.</t>
+  </si>
+  <si>
+    <t>deprotection reaction'
+ and (deprotects some 'carboxy group')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000433</t>
+  </si>
+  <si>
+    <t>carboxylic acid protection</t>
+  </si>
+  <si>
+    <t>A protection reaction where the reactive centre is a carboxy oxygen.</t>
+  </si>
+  <si>
+    <t>protection reaction'
+ and (protects some 'carboxy group')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000325</t>
+  </si>
+  <si>
+    <t>chain lengthening</t>
+  </si>
+  <si>
+    <t>A molecular skeleton joining reaction in which a chain part of a molecular skeleton is lengthened.</t>
+  </si>
+  <si>
+    <t>molecular skeleton joining reaction'
+ and (achieves_planned_objective some 'molecular chain lengthening objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000070</t>
+  </si>
+  <si>
+    <t>cleaving reaction</t>
+  </si>
+  <si>
+    <t>A reaction where atoms are lost from the molecular skeleton.</t>
+  </si>
+  <si>
+    <t>planned reaction step'
+ and (achieves_planned_objective some 'molecular skeleton cleaving objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000073</t>
+  </si>
+  <si>
+    <t>deprotection reaction</t>
+  </si>
+  <si>
+    <t>A reaction in which a protecting group is modified by converting it into a functional group.</t>
+  </si>
+  <si>
+    <t>functional modification'
+ and (achieves_planned_objective some 'deprotection objective')
+ and (deprotects some group)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000203</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Catalysis where the catalyst is a base. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(note: definition is missing in RXNO)</t>
+    </r>
+  </si>
+  <si>
+    <t>end-of-chain chain shortening</t>
+  </si>
+  <si>
+    <t>A reaction in which a single skeletal atom is removed from the end of a chain.</t>
+  </si>
+  <si>
+    <t>cleaving reaction'
+ and (achieves_planned_objective some 'end-of-chain chain shortening objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000105</t>
+  </si>
+  <si>
+    <t>enolisable carbonyl compound</t>
+  </si>
+  <si>
+    <t>A carbonyl compound that bears the disposition to be enolised.</t>
+  </si>
+  <si>
+    <t>carbonyl compound'
+ and ('has disposition at all times' some enolisability)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000718</t>
+  </si>
+  <si>
+    <t>should better be defined in ChEBI, maybe as subclass of 'carbonyl compound' (CHEBI:36586)</t>
+  </si>
+  <si>
+    <t>enolisation</t>
+  </si>
+  <si>
+    <t>Molecular process in which an aldehyde or ketone tautomerises to form an enol.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and (realizes some enolisability)</t>
+  </si>
+  <si>
+    <t>wrong ID (MOP:0000716 does not exist), correct would be MOP:0000672 and also the definition and the Equivalent To Axiom should be brought into agreement</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MOP_0000716 (wrong!!!)</t>
+  </si>
+  <si>
+    <t>ester condensation reaction</t>
+  </si>
+  <si>
+    <t>A condensation reaction that results in the production of an ester.</t>
+  </si>
+  <si>
+    <t>condensation reaction'
+ and ('has participant beginning to exist' some 'carboxylic ester')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000317</t>
+  </si>
+  <si>
+    <t>extrusion reaction</t>
+  </si>
+  <si>
+    <t>A cleaving reaction in which a skeletal atom or group of atoms is removed from the middle of a molecule.</t>
+  </si>
+  <si>
+    <t>cleaving reaction'
+ and (achieves_planned_objective some 'molecular extrusion objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000093</t>
+  </si>
+  <si>
+    <t>Fenton reaction</t>
+  </si>
+  <si>
+    <t>An oxidation reaction involving Fenton's reagent.</t>
+  </si>
+  <si>
+    <t>Fenton 1,2-glycol oxidation' or 'Fenton alpha-hydroxy carboxylic acid oxidation' or 'Fenton hydrogen peroxide reduction'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000266 (alternative: http://purl.obolibrary.org/obo/RXNO_0000267)</t>
+  </si>
+  <si>
+    <t>fragmentation reaction</t>
+  </si>
+  <si>
+    <t>A reaction in which the parent molecule breaks up into three or more products.</t>
+  </si>
+  <si>
+    <t>cleaving reaction'
+ and (achieves_planned_objective some 'molecular fragmentation objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000110</t>
+  </si>
+  <si>
+    <t>Friedel-Crafts reaction</t>
+  </si>
+  <si>
+    <t>A carbon-carbon coupling reaction between an arene and a carbonyl compound (an acylation) or an alkyl compound that can form a carbocation (an alkylation) to form a substituted arene.</t>
+  </si>
+  <si>
+    <t>'Friedel-Crafts acylation' or 'Friedel-Crafts alkylation'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000369</t>
+  </si>
+  <si>
+    <t>Fries rearrangement</t>
+  </si>
+  <si>
+    <t>Rearrangement of the acyl group in a phenolate ester to the ortho- and/or para-position. It is catalysed by a Lewis acid.</t>
+  </si>
+  <si>
+    <t>ortho-Fries rearrangement' or 'para-Fries rearrangement'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000444</t>
+  </si>
+  <si>
+    <t>functional group addition step</t>
+  </si>
+  <si>
+    <t>A planned reaction step in which a covalent bond is formed between the molecular skeleton and a functional group and where the skeletal bond order is unchanged.</t>
+  </si>
+  <si>
+    <t>functional modification'
+ and (achieves_planned_objective some 'functional group addition objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000373</t>
+  </si>
+  <si>
+    <t>functional group modification</t>
+  </si>
+  <si>
+    <t>A reaction in which a functional group undergoes a change that does not affect the number of atoms in (or connectivity of) the skeleton of the molecule.</t>
+  </si>
+  <si>
+    <t>functional modification'
+ and (achieves_planned_objective some 'functional group modification objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000011</t>
+  </si>
+  <si>
+    <t>functional group oxidation</t>
+  </si>
+  <si>
+    <t>A functional group modification reaction where a functional group is oxidised.</t>
+  </si>
+  <si>
+    <t>functional group modification'
+ and (achieves_planned_objective some 'functional oxidation objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000012</t>
+  </si>
+  <si>
+    <t>functional group reduction</t>
+  </si>
+  <si>
+    <t>A functional group modification reaction where a functional group is reduced.</t>
+  </si>
+  <si>
+    <t>functional group modification'
+ and (achieves_planned_objective some 'functional reduction objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000037</t>
+  </si>
+  <si>
+    <t>functional modification</t>
+  </si>
+  <si>
+    <t>A reaction where the number of atoms in the skeleton, and their connectivity, remain the same.</t>
+  </si>
+  <si>
+    <t>planned reaction step'
+ and (achieves_planned_objective some 'functional modification objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000010</t>
+  </si>
+  <si>
+    <t>fused-ring-system formation</t>
+  </si>
+  <si>
+    <t>A reaction in which a fused ring system is present in a product that was not present in any of the reactants.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some 'fused compound')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000052</t>
+  </si>
+  <si>
+    <t>Gattermann halogenation</t>
+  </si>
+  <si>
+    <t>An aromatic substitution reaction where an aryl diazonium salt reacts with copper powder and hydrochloric acid or hydrobromic acid to form an aromatic chloride or bromide.</t>
+  </si>
+  <si>
+    <t>Gattermann chlorination' or 'Gattermann bromination'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000022</t>
+  </si>
+  <si>
+    <t>Heck reaction</t>
+  </si>
+  <si>
+    <t>A carbon-carbon coupling reaction where an organohalide or triflate couples to a terminal olefin to produce an internal olefin, catalysed by palladium. It is stereospecific.</t>
+  </si>
+  <si>
+    <t>Heck-type reaction'
+ and (has_catalyst some 'palladium atom')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000024</t>
+  </si>
+  <si>
+    <t>heterocycle synthesis</t>
+  </si>
+  <si>
+    <t>A ring formation reaction where the intended product contains a heterocycle that was not in any of the reactants.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some 'heterocyclic compound')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000349</t>
+  </si>
+  <si>
+    <t>Hofmann-Löffler-Freytag reaction</t>
+  </si>
+  <si>
+    <t>An azacycle synthesis in which pyrrolidines or piperidines are formed by decomposition of protonated N-haloamines.</t>
+  </si>
+  <si>
+    <t>'Hofmann-Löffler-Freytag piperidine synthesis' or 'Hofmann-Löffler-Freytag pyrrolidine synthesis'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000618</t>
+  </si>
+  <si>
+    <t>hydroxy group deprotection</t>
+  </si>
+  <si>
+    <t>A deprotection reaction where the reactive centre is an oxygen atom.</t>
+  </si>
+  <si>
+    <t>deprotection reaction'
+ and (deprotects some 'hydroxy group')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000430</t>
+  </si>
+  <si>
+    <t>hydroxyl group protection</t>
+  </si>
+  <si>
+    <t>A protection reaction where the reactive centre is a hydroxyl oxygen atom.</t>
+  </si>
+  <si>
+    <t>protection reaction'
+ and (protects some 'hydroxy group')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000323</t>
+  </si>
+  <si>
+    <t>indole synthesis</t>
+  </si>
+  <si>
+    <t>A reaction in which the intended product is an indole that was not present in any of the reactants.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some indoles)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000395</t>
+  </si>
+  <si>
+    <t>Johnson-Corey-Chaykovsky reaction</t>
+  </si>
+  <si>
+    <t>Reaction of a sulfur ylide with a double-bond to produce a three-membered ring.</t>
+  </si>
+  <si>
+    <t>Johnson-Corey-Chaykovsky epoxide synthesis' or 'Johnson-Corey-Chaykovsky cyclopropane synthesis' or 'Johnson-Corey-Chaykovsky aziridine synthesis' or 'Johnson-Corey-Chaykovsky thiirane synthesis'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000598</t>
+  </si>
+  <si>
+    <t>joining with rearrangement</t>
+  </si>
+  <si>
+    <t>A reaction in which one or more atoms are added to the molecular skeleton and a skeletal rearrangement occurs.</t>
+  </si>
+  <si>
+    <t>molecular skeleton joining reaction'
+ and (achieves_planned_objective some 'joining with rearrangement objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000150</t>
+  </si>
+  <si>
+    <t>Kumada coupling</t>
+  </si>
+  <si>
+    <t>A cross-coupling reaction between a Grignard reagent and an activated (aryl or vinyl) halide or triflate. The reaction is catalysed by a palladium or nickel catalyst.</t>
+  </si>
+  <si>
+    <t>palladium-catalysed Kumada coupling' or 'nickel-catalysed Kumada coupling'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000144</t>
+  </si>
+  <si>
+    <t>Leuckart reaction</t>
+  </si>
+  <si>
+    <t>The reductive amination of ketones or aldehydes with an ammonium formate or formamide to form an amine.</t>
+  </si>
+  <si>
+    <t>Leuckart aldehyde reaction' or 'Leuckart ketone reaction'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000101</t>
+  </si>
+  <si>
+    <t>Meerwein-Ponndorf-Verley reduction</t>
+  </si>
+  <si>
+    <t>A reduction of an aldehyde or ketone to an alcohol involving an equilibrium between the aldehyde or ketone and a reagent alcohol present in excess, catalysed by a metal alkoxide. This reaction is the reverse of the Oppenauer oxidation (RXNO:0000047).</t>
+  </si>
+  <si>
+    <t>Meerwein-Ponndorf-Verley reduction of an aldehyde' or 'Meerwein-Ponndorf-Verley reduction of a ketone'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000089</t>
+  </si>
+  <si>
+    <t>molecular skeleton elimination reaction</t>
+  </si>
+  <si>
+    <t>A reaction in which two or more groups of atoms are removed from the molecule, resulting in a change of skeletal bond order.</t>
+  </si>
+  <si>
+    <t>functional modification'
+ and (achieves_planned_objective some 'molecular skeleton elimination objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000123</t>
+  </si>
+  <si>
+    <t>molecular skeleton insertion reaction</t>
+  </si>
+  <si>
+    <t>A joining reaction in which one or more atoms are added to the middle of a chain.</t>
+  </si>
+  <si>
+    <t>molecular skeleton joining reaction'
+ and (achieves_planned_objective some 'molecular skeleton insertion objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000030</t>
+  </si>
+  <si>
+    <t>molecular skeleton joining reaction</t>
+  </si>
+  <si>
+    <t>A reaction where the number of atoms in the molecular skeleton increases.</t>
+  </si>
+  <si>
+    <t>carbon-carbon coupling reaction'
+ and (achieves_planned_objective some 'molecular skeleton joining objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000000</t>
+  </si>
+  <si>
+    <t>Nicholas reaction</t>
+  </si>
+  <si>
+    <t>The reaction of a propargylic cation (stabilised with dicobalt octacarbonyl) with a nucleophile to give a substituted alkyne.</t>
+  </si>
+  <si>
+    <t>Nicholas reaction, nucleophilic heteroatom centre' or 'Nicholas reaction, nucleophilic carbon centre'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000114</t>
+  </si>
+  <si>
+    <t>nitro reduction to amine</t>
+  </si>
+  <si>
+    <t>A reduction reaction where a nitro group is reduced to an amino group.</t>
+  </si>
+  <si>
+    <t>reduction
+ and ('has specified product' some 'primary amine')
+ and ('has specified reactant' some 'nitro compound')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000337</t>
+  </si>
+  <si>
+    <t>olefination</t>
+  </si>
+  <si>
+    <t>A molecular skeleton joining reaction where the connection formed is a carbon-carbon double bond.</t>
+  </si>
+  <si>
+    <t>carbon-carbon coupling reaction'
+ and ('has specified product' some olefin)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000479</t>
+  </si>
+  <si>
+    <t>oxacycle synthesis</t>
+  </si>
+  <si>
+    <t>A ring formation reaction where the intended product contains an oxacycle that was not in any of the reactants.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some oxacycle)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000346</t>
+  </si>
+  <si>
+    <t>palladium-catalysed carbon-carbon coupling reaction</t>
+  </si>
+  <si>
+    <t>A carbon-carbon coupling reaction that is catalysed by a palladium atom.</t>
+  </si>
+  <si>
+    <t>carbon-carbon coupling reaction'
+ and (has_catalyst some 'palladium atom')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000316</t>
+  </si>
+  <si>
+    <t>planned reaction step</t>
+  </si>
+  <si>
+    <t>A molecular process with which the experimenters aim to achieve a particular molecular transformation.</t>
+  </si>
+  <si>
+    <t>planned process'
+ and (achieves_planned_objective some 'molecular transformation objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000001</t>
+  </si>
+  <si>
+    <t>polymerisation reaction</t>
+  </si>
+  <si>
+    <t>A joining reaction, the objective of which is that a large number of monomers react together to produce a polymer consisting of repeating units.</t>
+  </si>
+  <si>
+    <t>molecular skeleton joining reaction'
+ and (achieves_planned_objective some 'polymerisation objective')
+ and ('has specified product' some macromolecule)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000246</t>
+  </si>
+  <si>
+    <t>whats the difference to 'polymerisation' (MOP:0000629)?; is this seperate class &amp; definition in RXNO really needed?</t>
+  </si>
+  <si>
+    <t>protection reaction</t>
+  </si>
+  <si>
+    <t>A reaction in which a functional group is modified by converting it into a protecting group, in order to make subsequent reactions more selective.</t>
+  </si>
+  <si>
+    <t>functional modification'
+ and (protects some group)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000078</t>
+  </si>
+  <si>
+    <t>pyrazole synthesis</t>
+  </si>
+  <si>
+    <t>A reaction in which the intended product is a pyrazole that was not present in any of the reactants.</t>
+  </si>
+  <si>
+    <t>azacycle synthesis'
+ and ('has specified product' some pyrazoles)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000392</t>
+  </si>
+  <si>
+    <t>pyridine synthesis</t>
+  </si>
+  <si>
+    <t>Ring formation reaction where the intended product is a pyridine.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some pyridines)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000520</t>
+  </si>
+  <si>
+    <t>pyrrole synthesis</t>
+  </si>
+  <si>
+    <t>A reaction in which the intended product is a pyrrole that was not present in any of the reactants.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some pyrroles)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000497</t>
+  </si>
+  <si>
+    <t>quinoline synthesis</t>
+  </si>
+  <si>
+    <t>A reaction in which the intended product is a quinoline that was not present in any of the reactants.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some quinolines)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000393</t>
+  </si>
+  <si>
+    <t>rearrangement step</t>
+  </si>
+  <si>
+    <t>A reaction which preserves the number of rings and number of skeletal atoms and in which the molecule rearranges so that one or more atoms or groups of atoms move from one atom to another.</t>
+  </si>
+  <si>
+    <t>planned reaction step'
+ and (achieves_planned_objective some 'molecular rearrangement objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000025</t>
+  </si>
+  <si>
+    <t>ring breaking</t>
+  </si>
+  <si>
+    <t>A planned reaction step in which the product has fewer rings than the reactants.</t>
+  </si>
+  <si>
+    <t>planned reaction step'
+ and (achieves_planned_objective some 'molecular ring breaking objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000205</t>
+  </si>
+  <si>
+    <t>ring formation reaction step</t>
+  </si>
+  <si>
+    <t>A planned reaction step where the product contains a ring that was not in any of the reactants.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some 'cyclic compound')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000005</t>
+  </si>
+  <si>
+    <t>ring rearrangement</t>
+  </si>
+  <si>
+    <t>A reaction in which the number of rings in a molecule stays the same but the connectivity of the atoms in at least one ring changes.</t>
+  </si>
+  <si>
+    <t>ring formation reaction step'
+ and (achieves_planned_objective some 'molecular ring rearrangement objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000202</t>
+  </si>
+  <si>
+    <t>Sakurai reaction</t>
+  </si>
+  <si>
+    <t>Reaction of allyltrimethylsilane with a carbon electrophile to allylate the carbon electrophile.</t>
+  </si>
+  <si>
+    <t>Sakurai reaction, aldehyde or ketone' or 'Sakurai reaction, enone' or 'Sakurai reaction, acid chloride' or 'Sakurai reaction, acetal or ketal' or 'imine Sakurai reaction' or 'Sakurai reaction, epoxide'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000443</t>
+  </si>
+  <si>
+    <t>Sakurai reaction, aldehyde or ketone</t>
+  </si>
+  <si>
+    <t>A carbon-carbon coupling reaction in which an aldehyde or ketone reacts with allyltrimethylsilane to form a homoallylic alcohol.</t>
+  </si>
+  <si>
+    <t>'aldehyde Sakurai reaction' or 'ketone Sakurai reaction'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000212</t>
+  </si>
+  <si>
+    <t>Sandmeyer reaction</t>
+  </si>
+  <si>
+    <t>An aromatic substitution reaction where an aryl diazonium salt reacts with a copper(I) halide or pseudohalide to form an aromatic halide or pseudohalide.</t>
+  </si>
+  <si>
+    <t>Sandmeyer halogenation' or 'Sandmeyer pseudohalogenation'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000021</t>
+  </si>
+  <si>
+    <t>Sarett oxidation</t>
+  </si>
+  <si>
+    <t>Oxidation of an alcohol with a pyridine-chromium trioxide complex to yield a carbonyl compound.</t>
+  </si>
+  <si>
+    <t>Sarett primary alcohol oxidation' or 'Sarett secondary alcohol oxidation'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000547</t>
+  </si>
+  <si>
+    <t>substitution step</t>
+  </si>
+  <si>
+    <t>A functional modification step in which one singly-bonded substituent, but not a hydrogen, is replaced by another singly-bonded substituent.</t>
+  </si>
+  <si>
+    <t>functional modification'
+ and (achieves_planned_objective some 'molecular substitution objective')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000331</t>
+  </si>
+  <si>
+    <t>thiacycle synthesis</t>
+  </si>
+  <si>
+    <t>A ring formation reaction where the intended product contains an thiacycle that was not in any of the reactants.</t>
+  </si>
+  <si>
+    <t>molecular process'
+ and ('has specified product' some 'organosulfur heterocyclic compound')</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RXNO_0000348</t>
+  </si>
+  <si>
+    <t>consider difference/distinction from 'substitution reaction' (MOP:0000790 &amp; RXNO:0000019)</t>
+  </si>
+  <si>
+    <t>not necessary, better use "has_synonym" or make corresponding subclasses</t>
+  </si>
+  <si>
+    <t>not necessary, corresponding subclasses are already present</t>
+  </si>
+  <si>
+    <t>not necessary, better use "has_synonym" relation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -158,35 +1412,76 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,34 +1489,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,144 +1858,1720 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30" display="http://purl.obolibrary.org/obo/MOP_0000539"/>
+    <hyperlink ref="B32" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B29" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
+    <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="B16" r:id="rId16"/>
+    <hyperlink ref="B17" r:id="rId17"/>
+    <hyperlink ref="B18" r:id="rId18"/>
+    <hyperlink ref="B19" r:id="rId19"/>
+    <hyperlink ref="B20" r:id="rId20"/>
+    <hyperlink ref="B21" r:id="rId21"/>
+    <hyperlink ref="B22" r:id="rId22"/>
+    <hyperlink ref="B23" r:id="rId23"/>
+    <hyperlink ref="B24" r:id="rId24"/>
+    <hyperlink ref="B25" r:id="rId25"/>
+    <hyperlink ref="B26" r:id="rId26" display="http://purl.obolibrary.org/obo/RXNO_0000266"/>
+    <hyperlink ref="B27" r:id="rId27"/>
+    <hyperlink ref="B28" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>
--- a/docs/Axiomatisation_Rationale.xlsx
+++ b/docs/Axiomatisation_Rationale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="28512" windowHeight="12852"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="MOP" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="420">
   <si>
     <t>Class</t>
   </si>
@@ -1388,6 +1388,12 @@
   </si>
   <si>
     <t>not necessary, better use "has_synonym" relation</t>
+  </si>
+  <si>
+    <t>subclasses-union-as-equivalent-pattern</t>
+  </si>
+  <si>
+    <t>If it is only a synonym I support JH proposal, otherwise we need another object property to relate this general molecular process to the respective sysnthesis that make use of it.</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1554,6 +1560,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1862,23 +1871,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -1935,7 +1944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="52.9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1980,7 +1989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="79.150000000000006" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>34</v>
       </c>
@@ -2109,7 +2118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>66</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>70</v>
       </c>
@@ -2137,7 +2146,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -2151,7 +2160,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
@@ -2165,7 +2174,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>82</v>
       </c>
@@ -2179,7 +2188,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>86</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>90</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>94</v>
       </c>
@@ -2221,7 +2230,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>98</v>
       </c>
@@ -2235,7 +2244,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>102</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>106</v>
       </c>
@@ -2263,7 +2272,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>110</v>
       </c>
@@ -2277,7 +2286,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>114</v>
       </c>
@@ -2291,7 +2300,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>118</v>
       </c>
@@ -2305,7 +2314,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>122</v>
       </c>
@@ -2319,7 +2328,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>126</v>
       </c>
@@ -2333,7 +2342,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>130</v>
       </c>
@@ -2391,24 +2400,24 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2434,7 +2443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -2447,11 +2456,11 @@
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E2" s="16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>134</v>
       </c>
@@ -2479,7 +2488,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>142</v>
       </c>
@@ -2491,6 +2500,9 @@
       </c>
       <c r="D5" s="15" t="s">
         <v>144</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>416</v>
@@ -2510,7 +2522,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>150</v>
       </c>
@@ -2524,7 +2536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>154</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>158</v>
       </c>
@@ -2550,6 +2562,9 @@
       </c>
       <c r="D9" s="15" t="s">
         <v>165</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>416</v>
@@ -2569,7 +2584,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>166</v>
       </c>
@@ -2582,11 +2597,14 @@
       <c r="D11" s="10" t="s">
         <v>169</v>
       </c>
+      <c r="E11" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F11" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -2600,7 +2618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>170</v>
       </c>
@@ -2613,11 +2631,14 @@
       <c r="D13" s="10" t="s">
         <v>173</v>
       </c>
+      <c r="E13" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F13" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>174</v>
       </c>
@@ -2631,7 +2652,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>178</v>
       </c>
@@ -2645,7 +2666,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>182</v>
       </c>
@@ -2659,7 +2680,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>186</v>
       </c>
@@ -2701,7 +2722,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>198</v>
       </c>
@@ -2715,7 +2736,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>203</v>
       </c>
@@ -2729,7 +2750,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>207</v>
       </c>
@@ -2746,7 +2767,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>212</v>
       </c>
@@ -2763,7 +2784,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>217</v>
       </c>
@@ -2777,7 +2798,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>221</v>
       </c>
@@ -2791,7 +2812,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>225</v>
       </c>
@@ -2804,11 +2825,14 @@
       <c r="D26" s="9" t="s">
         <v>227</v>
       </c>
+      <c r="E26" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F26" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>229</v>
       </c>
@@ -2822,7 +2846,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>233</v>
       </c>
@@ -2835,11 +2859,14 @@
       <c r="D28" s="9" t="s">
         <v>235</v>
       </c>
+      <c r="E28" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F28" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>237</v>
       </c>
@@ -2852,11 +2879,14 @@
       <c r="D29" s="15" t="s">
         <v>239</v>
       </c>
+      <c r="E29" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F29" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>241</v>
       </c>
@@ -2870,7 +2900,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>245</v>
       </c>
@@ -2884,7 +2914,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>249</v>
       </c>
@@ -2898,7 +2928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>253</v>
       </c>
@@ -2912,7 +2942,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>257</v>
       </c>
@@ -2926,7 +2956,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>261</v>
       </c>
@@ -2940,7 +2970,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>265</v>
       </c>
@@ -2953,11 +2983,14 @@
       <c r="D36" s="9" t="s">
         <v>267</v>
       </c>
+      <c r="E36" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F36" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>269</v>
       </c>
@@ -2971,7 +3004,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>273</v>
       </c>
@@ -2985,7 +3018,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>277</v>
       </c>
@@ -2998,11 +3031,14 @@
       <c r="D39" s="10" t="s">
         <v>279</v>
       </c>
+      <c r="E39" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F39" s="10" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>281</v>
       </c>
@@ -3016,7 +3052,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>285</v>
       </c>
@@ -3030,7 +3066,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>289</v>
       </c>
@@ -3044,7 +3080,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>293</v>
       </c>
@@ -3057,11 +3093,14 @@
       <c r="D43" s="15" t="s">
         <v>295</v>
       </c>
+      <c r="E43" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F43" s="10" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>297</v>
       </c>
@@ -3075,7 +3114,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>301</v>
       </c>
@@ -3088,11 +3127,14 @@
       <c r="D45" s="15" t="s">
         <v>303</v>
       </c>
+      <c r="E45" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F45" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>305</v>
       </c>
@@ -3105,11 +3147,14 @@
       <c r="D46" s="9" t="s">
         <v>307</v>
       </c>
+      <c r="E46" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F46" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="10" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>309</v>
       </c>
@@ -3122,11 +3167,14 @@
       <c r="D47" s="15" t="s">
         <v>311</v>
       </c>
+      <c r="E47" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F47" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>313</v>
       </c>
@@ -3140,7 +3188,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>317</v>
       </c>
@@ -3154,7 +3202,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>321</v>
       </c>
@@ -3168,7 +3216,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>325</v>
       </c>
@@ -3181,11 +3229,14 @@
       <c r="D51" s="15" t="s">
         <v>327</v>
       </c>
+      <c r="E51" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F51" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>329</v>
       </c>
@@ -3199,7 +3250,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>333</v>
       </c>
@@ -3213,7 +3264,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>337</v>
       </c>
@@ -3227,7 +3278,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>341</v>
       </c>
@@ -3241,7 +3292,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>345</v>
       </c>
@@ -3255,7 +3306,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>349</v>
       </c>
@@ -3272,7 +3323,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>354</v>
       </c>
@@ -3286,7 +3337,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>358</v>
       </c>
@@ -3300,7 +3351,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>362</v>
       </c>
@@ -3314,7 +3365,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>366</v>
       </c>
@@ -3328,7 +3379,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>370</v>
       </c>
@@ -3342,7 +3393,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>374</v>
       </c>
@@ -3356,7 +3407,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>378</v>
       </c>
@@ -3370,7 +3421,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>382</v>
       </c>
@@ -3384,7 +3435,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>386</v>
       </c>
@@ -3398,7 +3449,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>390</v>
       </c>
@@ -3411,11 +3462,14 @@
       <c r="D67" s="15" t="s">
         <v>392</v>
       </c>
+      <c r="E67" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F67" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>394</v>
       </c>
@@ -3428,11 +3482,14 @@
       <c r="D68" s="9" t="s">
         <v>396</v>
       </c>
+      <c r="E68" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F68" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>398</v>
       </c>
@@ -3445,11 +3502,14 @@
       <c r="D69" s="15" t="s">
         <v>400</v>
       </c>
+      <c r="E69" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F69" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>402</v>
       </c>
@@ -3462,11 +3522,14 @@
       <c r="D70" s="9" t="s">
         <v>404</v>
       </c>
+      <c r="E70" s="16" t="s">
+        <v>418</v>
+      </c>
       <c r="F70" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>406</v>
       </c>
@@ -3483,7 +3546,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>410</v>
       </c>

--- a/docs/Axiomatisation_Rationale.xlsx
+++ b/docs/Axiomatisation_Rationale.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="420">
   <si>
     <t>Class</t>
   </si>
@@ -1870,8 +1870,8 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1926,8 +1926,8 @@
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
+      <c r="E2" s="16" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -1956,6 +1956,9 @@
       </c>
       <c r="D4" s="9" t="s">
         <v>22</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -2401,7 +2404,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/docs/Axiomatisation_Rationale.xlsx
+++ b/docs/Axiomatisation_Rationale.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="426">
   <si>
     <t>Class</t>
   </si>
@@ -75,9 +75,6 @@
     <t>1/2/addition reaction'
  and ('has occurrent part' some organosilylation)
  and ('has occurrent part' some cyanation)</t>
-  </si>
-  <si>
-    <t>seems unproblematic, but is this really necessary?</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/MOP_0000731</t>
@@ -1394,6 +1391,28 @@
   </si>
   <si>
     <t>If it is only a synonym I support JH proposal, otherwise we need another object property to relate this general molecular process to the respective sysnthesis that make use of it.</t>
+  </si>
+  <si>
+    <t>If it is only a synonym I support JH proposal, otherwise we need another object property to relate this general molecular process to the respective sysnthesis that make use of it. But also the question arrises if this is meant to be a general molecular process or a planned process (synthesis)</t>
+  </si>
+  <si>
+    <t>molecular process vs planned process pattern</t>
+  </si>
+  <si>
+    <t>see MOP (also example of MOP direct import approach benefit)</t>
+  </si>
+  <si>
+    <t>why "functual modification and … " and not "functional group modification and …" ? Might benefit from another sublcass axiom along the lines of:  "addition and (occurent part of some functional group modification)". Why is the MOP class ('addition') not taken as first part of the axiom, when it is in 'amide reduction to amine' (MOP:reduction)?</t>
+  </si>
+  <si>
+    <t>Proposal of alternative equito axiom: "functional group modification and ('has specified product' some amine)
+ and ('has specified reactant' some amide) ". And rather add subclass axiom: "reduction and part_of some functional group modification)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecular process' and 'planned process' and (achieves_planned_objective some 'molecular transformation objective') --&gt; this way we don't need to assert that children of this are also molecular processes in their equiTo axioms. </t>
+  </si>
+  <si>
+    <t>unproblematic</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1563,6 +1582,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1870,8 +1892,8 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1937,7 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>13</v>
@@ -1927,55 +1949,61 @@
         <v>12</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>26</v>
+      <c r="E3" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="52.9" x14ac:dyDescent="0.3">
+      <c r="E5" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1989,63 +2017,66 @@
         <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" ht="79.150000000000006" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>36</v>
+      <c r="E7" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -2062,301 +2093,301 @@
         <v>18</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2403,8 +2434,8 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2446,1180 +2477,1198 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E3" s="16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F9" s="10" t="s">
+    <row r="41" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="10" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F26" s="6" t="s">
+    <row r="45" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F39" s="10" t="s">
+    <row r="47" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F43" s="10" t="s">
+      <c r="F47" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B47" s="14" t="s">
+      <c r="F48" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="B49" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="D49" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="B50" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="D50" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="B51" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="D51" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="B52" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="D52" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="B53" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="D53" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="B54" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="D54" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="B55" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="D55" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="B56" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="C55" s="12" t="s">
+      <c r="D56" s="15" t="s">
         <v>342</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="D57" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C59" s="12" t="s">
+      <c r="D59" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="D61" s="15" t="s">
         <v>367</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="C63" s="12" t="s">
+      <c r="D63" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="10" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="C67" s="12" t="s">
+      <c r="D67" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="D67" s="15" t="s">
-        <v>392</v>
-      </c>
       <c r="E67" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>396</v>
-      </c>
       <c r="E68" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C69" s="12" t="s">
+      <c r="D69" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="D69" s="15" t="s">
-        <v>400</v>
-      </c>
       <c r="E69" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>404</v>
-      </c>
       <c r="E70" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="C71" s="12" t="s">
+      <c r="D71" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="D71" s="15" t="s">
-        <v>408</v>
-      </c>
       <c r="F71" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>411</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B29" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B9" r:id="rId9"/>
-    <hyperlink ref="B10" r:id="rId10"/>
-    <hyperlink ref="B11" r:id="rId11"/>
-    <hyperlink ref="B12" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
-    <hyperlink ref="B14" r:id="rId14"/>
-    <hyperlink ref="B15" r:id="rId15"/>
-    <hyperlink ref="B16" r:id="rId16"/>
-    <hyperlink ref="B17" r:id="rId17"/>
-    <hyperlink ref="B18" r:id="rId18"/>
-    <hyperlink ref="B19" r:id="rId19"/>
-    <hyperlink ref="B20" r:id="rId20"/>
-    <hyperlink ref="B21" r:id="rId21"/>
-    <hyperlink ref="B22" r:id="rId22"/>
-    <hyperlink ref="B23" r:id="rId23"/>
-    <hyperlink ref="B24" r:id="rId24"/>
-    <hyperlink ref="B25" r:id="rId25"/>
-    <hyperlink ref="B26" r:id="rId26" display="http://purl.obolibrary.org/obo/RXNO_0000266"/>
-    <hyperlink ref="B27" r:id="rId27"/>
-    <hyperlink ref="B28" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B30" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26" display="http://purl.obolibrary.org/obo/RXNO_0000266"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B48" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B50" r:id="rId48"/>
+    <hyperlink ref="B51" r:id="rId49"/>
+    <hyperlink ref="B52" r:id="rId50"/>
+    <hyperlink ref="B53" r:id="rId51"/>
+    <hyperlink ref="B54" r:id="rId52"/>
+    <hyperlink ref="B55" r:id="rId53"/>
+    <hyperlink ref="B56" r:id="rId54"/>
+    <hyperlink ref="B2" r:id="rId55"/>
     <hyperlink ref="B57" r:id="rId56"/>
     <hyperlink ref="B58" r:id="rId57"/>
     <hyperlink ref="B59" r:id="rId58"/>

--- a/docs/Axiomatisation_Rationale.xlsx
+++ b/docs/Axiomatisation_Rationale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12855"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MOP" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="427">
   <si>
     <t>Class</t>
   </si>
@@ -1413,6 +1413,10 @@
   </si>
   <si>
     <t>unproblematic</t>
+  </si>
+  <si>
+    <t>proposal: polymerisation and 'chain reaction' 
+ and ('has participant beginning to exist' some macromolecule)</t>
   </si>
 </sst>
 </file>
@@ -1891,9 +1895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2034,10 +2038,10 @@
         <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -2050,8 +2054,11 @@
       <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>41</v>
       </c>
@@ -2063,6 +2070,9 @@
       </c>
       <c r="D9" s="10" t="s">
         <v>44</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -2433,9 +2443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/docs/Axiomatisation_Rationale.xlsx
+++ b/docs/Axiomatisation_Rationale.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="429">
   <si>
     <t>Class</t>
   </si>
@@ -1405,18 +1405,24 @@
     <t>why "functual modification and … " and not "functional group modification and …" ? Might benefit from another sublcass axiom along the lines of:  "addition and (occurent part of some functional group modification)". Why is the MOP class ('addition') not taken as first part of the axiom, when it is in 'amide reduction to amine' (MOP:reduction)?</t>
   </si>
   <si>
-    <t>Proposal of alternative equito axiom: "functional group modification and ('has specified product' some amine)
- and ('has specified reactant' some amide) ". And rather add subclass axiom: "reduction and part_of some functional group modification)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecular process' and 'planned process' and (achieves_planned_objective some 'molecular transformation objective') --&gt; this way we don't need to assert that children of this are also molecular processes in their equiTo axioms. </t>
-  </si>
-  <si>
     <t>unproblematic</t>
   </si>
   <si>
     <t>proposal: polymerisation and 'chain reaction' 
  and ('has participant beginning to exist' some macromolecule)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposal of alternative equito axiom: "functional group modification and ('has specified product' some amine)
+ and ('has specified reactant' some amide) ". And rather add subclass axiom: "reduction and part_of some functional group modification)"; see also https://github.com/NFDI4Chem/rxno/blob/equivalent-to-issue/rxno.owl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecular process' and 'planned process' and (achieves_planned_objective some 'molecular transformation objective') --&gt; this way we don't need to assert that children of this are also molecular processes in their equiTo axioms. ; see also https://github.com/NFDI4Chem/rxno/blob/equivalent-to-issue/rxno.owl </t>
+  </si>
+  <si>
+    <t>unproblematic, but could make use of ROBOT.relax</t>
+  </si>
+  <si>
+    <t>multiple asserted parents &amp; molecular process vs planned process pattern</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1903,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1976,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -2004,7 +2010,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -2021,7 +2027,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -2038,7 +2044,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -2055,7 +2061,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -2072,7 +2078,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -2134,7 +2140,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2444,8 +2450,8 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2487,7 +2493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>344</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>346</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2575,7 +2581,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>145</v>
       </c>
@@ -2589,10 +2595,10 @@
         <v>147</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>149</v>
       </c>
@@ -2605,8 +2611,11 @@
       <c r="D8" s="15" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="E8" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>153</v>
       </c>
@@ -2618,6 +2627,9 @@
       </c>
       <c r="D9" s="9" t="s">
         <v>155</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -2714,7 +2726,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>173</v>
       </c>
@@ -2727,8 +2739,11 @@
       <c r="D15" s="9" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="E15" s="17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>177</v>
       </c>
@@ -2742,7 +2757,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>181</v>
       </c>
@@ -2756,7 +2771,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>185</v>
       </c>
@@ -2770,7 +2785,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>189</v>
       </c>
@@ -2784,7 +2799,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>193</v>
       </c>
